--- a/biology/Mycologie/Caryospora_(champignon)/Caryospora_(champignon).xlsx
+++ b/biology/Mycologie/Caryospora_(champignon)/Caryospora_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryosporaceae
 Caryospora, unique représentant de la famille des Caryosporaceae, est un genre de champignons de l'ordre des Pleosporales.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caryospora De Not., 1857[1], validement publié en 1857 par le botaniste italien Giuseppe De Notaris[2]. Caryospora putaminum est l'espèce type. La famille monogénérique des Caryosporaceae a été proposée en 2015 par les mycologues Huang Zhang (d), Kevin David Hyde (d) et Hiran Anjana Ariyawansa (d)[3]. Certaines sources[4],[5],[6] classent le genre dans les Zopfiaceae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caryospora De Not., 1857, validement publié en 1857 par le botaniste italien Giuseppe De Notaris. Caryospora putaminum est l'espèce type. La famille monogénérique des Caryosporaceae a été proposée en 2015 par les mycologues Huang Zhang (d), Kevin David Hyde (d) et Hiran Anjana Ariyawansa (d). Certaines sources classent le genre dans les Zopfiaceae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (15 novembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (15 novembre 2023) :
 Caryospora aquatica Huang Zhang, K.D. Hyde &amp; Ariyaw., 2015
 Caryospora australiensis Abdel-Wahab &amp; E.B.G. Jones, 2000
 Caryospora callicarpa (Curr.) Nitschke, 1866
